--- a/Finflux Automation Excels/Client/5046-CompondingPenalityCharge-MoraoriumOnPrinciple2-5thRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5046-CompondingPenalityCharge-MoraoriumOnPrinciple2-5thRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -186,17 +186,14 @@
     <t>$0</t>
   </si>
   <si>
-    <t>$1.23</t>
-  </si>
-  <si>
-    <t>$0.37</t>
+    <t>$0.36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,24 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -324,17 +305,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,7 +686,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,22 +716,22 @@
         <v>5000</v>
       </c>
       <c r="B2" s="8">
-        <v>2997.99</v>
+        <v>2999.22</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>2002.01</v>
+        <v>2000.78</v>
       </c>
       <c r="F2" s="9">
-        <v>48.07</v>
+        <v>46.84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>240.45</v>
+        <v>240.44</v>
       </c>
       <c r="B3" s="9">
         <v>211.15</v>
@@ -771,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>29.3</v>
+        <v>29.29</v>
       </c>
       <c r="F3" s="9">
         <v>8.26</v>
@@ -799,10 +771,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>1.83</v>
+        <v>0.59</v>
       </c>
       <c r="B5" s="9">
-        <v>1.46</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -811,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -826,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>1056.28</v>
+        <v>1055.05</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="G8" s="8">
-        <v>1055.42</v>
+        <v>1055.4100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1016,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="K7" s="8">
-        <v>1056.28</v>
+        <v>1055.05</v>
       </c>
       <c r="L7" s="9">
         <v>999.95</v>
@@ -1359,7 +1331,7 @@
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9">
-        <v>56.33</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1375,22 +1347,22 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8">
-        <v>1034.72</v>
+        <v>1034.73</v>
       </c>
       <c r="G8" s="9">
-        <v>910.96</v>
+        <v>910.95</v>
       </c>
       <c r="H8" s="9">
-        <v>20.329999999999998</v>
+        <v>20.32</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="K8" s="8">
-        <v>1055.42</v>
+        <v>1055.4100000000001</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -1404,7 +1376,7 @@
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="8">
-        <v>1055.42</v>
+        <v>1055.4100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1420,7 +1392,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>910.96</v>
+        <v>910.95</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -1435,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>919.93</v>
+        <v>919.92</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -1449,7 +1421,7 @@
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9">
-        <v>919.93</v>
+        <v>919.92</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1434,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1477,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>238</v>
+        <v>585</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -1517,19 +1489,19 @@
         <v>37</v>
       </c>
       <c r="E2" s="9">
-        <v>20.38</v>
+        <v>20.37</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8">
-        <v>2019.76</v>
+        <v>2018.52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>237</v>
+        <v>584</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -1541,7 +1513,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="9">
-        <v>20.38</v>
+        <v>20.37</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1553,7 +1525,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>236</v>
+        <v>583</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -1565,19 +1537,19 @@
         <v>37</v>
       </c>
       <c r="E4" s="9">
-        <v>26.09</v>
+        <v>24.86</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8">
-        <v>1999.38</v>
+        <v>1998.15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>235</v>
+        <v>582</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -1589,7 +1561,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="9">
-        <v>26.09</v>
+        <v>24.86</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1601,7 +1573,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>234</v>
+        <v>581</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -1625,7 +1597,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>229</v>
+        <v>576</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -1649,7 +1621,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>228</v>
+        <v>575</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>36</v>
@@ -1673,7 +1645,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>227</v>
+        <v>574</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -1697,7 +1669,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -1721,7 +1693,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>213</v>
+        <v>560</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
@@ -1745,7 +1717,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>212</v>
+        <v>559</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -1769,7 +1741,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>211</v>
+        <v>558</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>36</v>
@@ -1793,7 +1765,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>202</v>
+        <v>549</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -1817,7 +1789,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>201</v>
+        <v>548</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -1841,7 +1813,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>200</v>
+        <v>547</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -1865,7 +1837,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>189</v>
+        <v>536</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
@@ -1889,7 +1861,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>188</v>
+        <v>535</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
@@ -1913,7 +1885,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>187</v>
+        <v>534</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>36</v>
@@ -1942,159 +1914,130 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>41998</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="15">
-        <v>42050</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="10">
+        <v>42095</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="15">
-        <v>42095</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="16"/>
+      <c r="K4" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" location="/loanaccountcharge/5/waivecharge/19" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/5/waivecharge/19"/>
+    <hyperlink ref="K4" r:id="rId1" location="/loanaccountcharge/24/waivecharge/137" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/24/waivecharge/137"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
